--- a/templates/AutomationOrg/RSTK-9526-SYDATA-Create Extract component transaction.xlsx
+++ b/templates/AutomationOrg/RSTK-9526-SYDATA-Create Extract component transaction.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54EB0AC-4993-4160-88B4-0759EB62F290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1801F121-F9E2-4535-99B6-6B1B69B47FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77C97FEF-7E82-40F3-B240-8FA62379481A}"/>
   </bookViews>
@@ -66,27 +66,20 @@
     <t>1020_PC1</t>
   </si>
   <si>
-    <t>Pro-Lot Track (Lot Track)</t>
+    <t>Pro-SYDATA1 (Lot track)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF4A4A56"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,9 +102,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +421,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="A3:XFD3"/>
+      <selection activeCell="B2" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,22 +435,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
